--- a/ALS.ALSI.Web/template/SumInvoiceTemplate.xlsx
+++ b/ALS.ALSI.Web/template/SumInvoiceTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Outsource\ALS.ALSI.Web\ALS.ALSI.Web\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF156195-1A17-4405-A8CB-1AEBFFEDFD73}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D462F156-532E-46B7-B262-D290D9D963FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14415" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14412" windowHeight="5976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="2" r:id="rId1"/>
@@ -262,42 +262,42 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -584,106 +584,106 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="3"/>
-    <col min="2" max="2" width="13.7109375" style="15"/>
-    <col min="3" max="4" width="13.7109375" style="16"/>
-    <col min="5" max="5" width="30.28515625" style="15" customWidth="1"/>
-    <col min="6" max="10" width="13.7109375" style="2"/>
-    <col min="11" max="12" width="13.7109375" style="1"/>
+    <col min="1" max="1" width="13.6640625" style="3"/>
+    <col min="2" max="2" width="13.6640625" style="7"/>
+    <col min="3" max="4" width="13.6640625" style="8"/>
+    <col min="5" max="5" width="30.33203125" style="7" customWidth="1"/>
+    <col min="6" max="10" width="13.6640625" style="2"/>
+    <col min="11" max="12" width="13.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+    <row r="3" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
+    <row r="4" spans="1:12" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
